--- a/kontrolpunktu tabula.xlsx
+++ b/kontrolpunktu tabula.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leksejevi\Documents\Loreta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leksejevi\Desktop\Programmēšana_gr.darbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="108">
   <si>
     <t>N*N</t>
   </si>
@@ -80,72 +80,33 @@
     <t>i(Zirgu sala)</t>
   </si>
   <si>
-    <t>1(virši)</t>
-  </si>
-  <si>
-    <t>2(Circlek)</t>
-  </si>
-  <si>
-    <t>3(Viada)</t>
-  </si>
-  <si>
     <t>j</t>
   </si>
   <si>
     <t>j(slimnīca)</t>
   </si>
   <si>
-    <t>650m</t>
-  </si>
-  <si>
-    <t>950m</t>
-  </si>
-  <si>
     <t>1,6km</t>
   </si>
   <si>
-    <t>1,2km</t>
-  </si>
-  <si>
     <t>f(Julianna)</t>
   </si>
   <si>
     <t>550m</t>
   </si>
   <si>
-    <t>5,9km</t>
-  </si>
-  <si>
     <t>h(Grob.pils)</t>
   </si>
   <si>
-    <t>11,9km</t>
-  </si>
-  <si>
-    <t>7,3km???</t>
-  </si>
-  <si>
-    <t>9,7km</t>
-  </si>
-  <si>
     <t>9,2km</t>
   </si>
   <si>
     <t>6,7km</t>
   </si>
   <si>
-    <t>11,3km</t>
-  </si>
-  <si>
-    <t>5,3km</t>
-  </si>
-  <si>
     <t>350m</t>
   </si>
   <si>
-    <t>1,9km</t>
-  </si>
-  <si>
     <t>2,2km</t>
   </si>
   <si>
@@ -161,12 +122,6 @@
     <t>12,8km</t>
   </si>
   <si>
-    <t>8,2km</t>
-  </si>
-  <si>
-    <t>10,7km</t>
-  </si>
-  <si>
     <t>1,3km</t>
   </si>
   <si>
@@ -182,97 +137,217 @@
     <t>10,3km</t>
   </si>
   <si>
-    <t>10,4km</t>
-  </si>
-  <si>
-    <t>13,1km</t>
-  </si>
-  <si>
-    <t>8,6km</t>
-  </si>
-  <si>
     <t>7,6km</t>
   </si>
   <si>
     <t>2,3km</t>
   </si>
   <si>
-    <t>1,7km</t>
-  </si>
-  <si>
     <t>5,6km</t>
   </si>
   <si>
-    <t>11,6km</t>
-  </si>
-  <si>
-    <t>7km</t>
-  </si>
-  <si>
-    <t>9,5km</t>
-  </si>
-  <si>
     <t>8,1km</t>
   </si>
   <si>
     <t>11,4km</t>
   </si>
   <si>
-    <t>6,2km</t>
-  </si>
-  <si>
     <t>6,4km</t>
   </si>
   <si>
-    <t>5,8km</t>
-  </si>
-  <si>
-    <t>11,7km</t>
-  </si>
-  <si>
-    <t>11,2km</t>
-  </si>
-  <si>
-    <t>12,6km</t>
-  </si>
-  <si>
-    <t>12,4km</t>
-  </si>
-  <si>
-    <t>12,1km</t>
-  </si>
-  <si>
-    <t>8,5km</t>
-  </si>
-  <si>
-    <t>8km</t>
-  </si>
-  <si>
-    <t>7,5km</t>
-  </si>
-  <si>
-    <t>7,7km</t>
-  </si>
-  <si>
-    <t>6,6km</t>
-  </si>
-  <si>
-    <t>7,1km</t>
-  </si>
-  <si>
-    <t>8,3km</t>
-  </si>
-  <si>
     <t>9,8km</t>
   </si>
   <si>
-    <t>9,3km</t>
-  </si>
-  <si>
     <t>6,5km</t>
   </si>
   <si>
     <t>Mērogs: 1:4(km)</t>
+  </si>
+  <si>
+    <t>3(Viada_grobiņa)</t>
+  </si>
+  <si>
+    <t>2(Circlek_rietumc.)</t>
+  </si>
+  <si>
+    <t>1(virši_cuk.)</t>
+  </si>
+  <si>
+    <t>3,2km</t>
+  </si>
+  <si>
+    <t>4,8km</t>
+  </si>
+  <si>
+    <t>5km</t>
+  </si>
+  <si>
+    <t>10,9km</t>
+  </si>
+  <si>
+    <t>2,6km</t>
+  </si>
+  <si>
+    <t>3,8km</t>
+  </si>
+  <si>
+    <t>23,6km</t>
+  </si>
+  <si>
+    <t>47,6km</t>
+  </si>
+  <si>
+    <t>29,2km</t>
+  </si>
+  <si>
+    <t>38,8km</t>
+  </si>
+  <si>
+    <t>23,2km</t>
+  </si>
+  <si>
+    <t>5,2km</t>
+  </si>
+  <si>
+    <t>40,8km</t>
+  </si>
+  <si>
+    <t>44,8km</t>
+  </si>
+  <si>
+    <t>8,8km</t>
+  </si>
+  <si>
+    <t>27,2km</t>
+  </si>
+  <si>
+    <t>42,8km</t>
+  </si>
+  <si>
+    <t>32,8km</t>
+  </si>
+  <si>
+    <t>51,2km</t>
+  </si>
+  <si>
+    <t>6km</t>
+  </si>
+  <si>
+    <t>7,2km</t>
+  </si>
+  <si>
+    <t>30,4km</t>
+  </si>
+  <si>
+    <t>52,4km</t>
+  </si>
+  <si>
+    <t>34,4km</t>
+  </si>
+  <si>
+    <t>41,6km</t>
+  </si>
+  <si>
+    <t>24,8km</t>
+  </si>
+  <si>
+    <t>42,4km</t>
+  </si>
+  <si>
+    <t>39,6km</t>
+  </si>
+  <si>
+    <t>4km</t>
+  </si>
+  <si>
+    <t>22,4km</t>
+  </si>
+  <si>
+    <t>38km</t>
+  </si>
+  <si>
+    <t>28km</t>
+  </si>
+  <si>
+    <t>46,4km</t>
+  </si>
+  <si>
+    <t>25,6km</t>
+  </si>
+  <si>
+    <t>21,2km</t>
+  </si>
+  <si>
+    <t>46,8km</t>
+  </si>
+  <si>
+    <t>50,4km</t>
+  </si>
+  <si>
+    <t>49,6km</t>
+  </si>
+  <si>
+    <t>48,4km</t>
+  </si>
+  <si>
+    <t>45,6km</t>
+  </si>
+  <si>
+    <t>45,2km</t>
+  </si>
+  <si>
+    <t>25,2km</t>
+  </si>
+  <si>
+    <t>36,8km</t>
+  </si>
+  <si>
+    <t>19,2km</t>
+  </si>
+  <si>
+    <t>34km</t>
+  </si>
+  <si>
+    <t>32km</t>
+  </si>
+  <si>
+    <t>30km</t>
+  </si>
+  <si>
+    <t>30,8km</t>
+  </si>
+  <si>
+    <t>26,4km</t>
+  </si>
+  <si>
+    <t>28,4km</t>
+  </si>
+  <si>
+    <t>33,2km</t>
+  </si>
+  <si>
+    <t>39,2km</t>
+  </si>
+  <si>
+    <t>37,2km</t>
+  </si>
+  <si>
+    <t>26km</t>
+  </si>
+  <si>
+    <t>31,6km</t>
+  </si>
+  <si>
+    <t>13,6km</t>
+  </si>
+  <si>
+    <t>20km</t>
+  </si>
+  <si>
+    <t>43,6km</t>
+  </si>
+  <si>
+    <t>1,4km</t>
   </si>
 </sst>
 </file>
@@ -486,7 +561,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -517,6 +592,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,8 +875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,6 +889,7 @@
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="12.42578125" customWidth="1"/>
     <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -835,28 +912,28 @@
         <v>15</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H1" s="12" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="N1" s="14" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1"/>
     </row>
@@ -867,393 +944,473 @@
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>23</v>
+      <c r="C2" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>50</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="2"/>
+      <c r="M6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>38</v>
+        <v>27</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>55</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>83</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="2"/>
+        <v>102</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>36</v>
+        <v>56</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>50</v>
-      </c>
       <c r="F10" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="2"/>
+        <v>103</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>34</v>
+        <v>58</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="2"/>
+      <c r="L11" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>1</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
+      <c r="B12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="L12" s="5" t="s">
         <v>10</v>
       </c>
@@ -1264,16 +1421,36 @@
       <c r="A13" s="17">
         <v>2</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
+      <c r="B13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5" t="s">
         <v>10</v>
@@ -1284,16 +1461,36 @@
       <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
+      <c r="B14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
       <c r="N14" s="3" t="s">
@@ -1302,7 +1499,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="B16" s="19"/>
     </row>
